--- a/Exercicios_logica_progr.xlsx
+++ b/Exercicios_logica_progr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD8375B-CC01-452E-9DF5-FBE3E1719143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290802FA-779F-4B7E-88A0-FAB527918E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2717B8FB-42EE-4637-96C9-5D581783B975}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Forma passo a passo:</t>
   </si>
@@ -460,13 +460,14 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
@@ -533,14 +534,21 @@
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D11" t="str">
-        <f>IF((B11/2)-ROUND((B11/2), 0)=0,"Par","Ímpar")</f>
-        <v>Ímpar</v>
+        <f>IF(IF(B11=INT(B11),"Inteiro","Não Inteiro")="Não Inteiro","Insira somente números inteiros",IF((B11/2)-ROUND((B11/2),0)=0,"Par","Ímpar"))</f>
+        <v>Insira somente números inteiros</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(IF(B11=INT(B11),"Inteiro","Não Inteiro")="Não Inteiro","Insira somente números inteiros",IF(ISEVEN(B11)=TRUE,"O nro é par","O nro é ímpar"))</f>
+        <v>Insira somente números inteiros</v>
       </c>
     </row>
   </sheetData>
